--- a/Documentation/Frequency.xlsx
+++ b/Documentation/Frequency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brams\eclipse-workspace\ElevatorControlSystem\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D4D6F6-A5B6-49F7-9C5B-E4FB5EAB3ECB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5783718B-5747-4751-ACFE-39064BD62D3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="13" xr2:uid="{388977CB-29F1-40BC-8A21-2391053F826C}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
   <si>
     <t>CONFIG_MODE</t>
   </si>
@@ -449,7 +449,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>21802032700</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B22" si="0">A4 - A3</f>
+        <f t="shared" ref="B3:B20" si="0">A4 - A3</f>
         <v>5999677400</v>
       </c>
     </row>
@@ -776,7 +776,7 @@
   <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2045,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,6 +2069,9 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2080,7 +2083,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,6 +2110,9 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2118,7 +2124,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,6 +2148,9 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2153,7 +2162,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,7 +2250,7 @@
         <v>27804847700</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B42" si="0">A4 - A3</f>
+        <f t="shared" ref="B3:B41" si="0">A4 - A3</f>
         <v>11998415600</v>
       </c>
     </row>
@@ -2602,7 +2611,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,7 +2652,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,7 +2690,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Frequency.xlsx
+++ b/Documentation/Frequency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brams\eclipse-workspace\ElevatorControlSystem\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D838F737-0773-4F4B-B70E-BF029A66CB4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023BEEF7-C39B-4423-8D4D-E250EC2916B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="7" xr2:uid="{388977CB-29F1-40BC-8A21-2391053F826C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{388977CB-29F1-40BC-8A21-2391053F826C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
   <si>
     <t>CONFIG_MODE</t>
   </si>
@@ -449,7 +449,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1040369992007700</v>
+        <v>1120909862554400</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E305C853-71EC-422A-862A-A4817EA0B6C5}">
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,1658 +515,1730 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1043383178243200</v>
+        <v>1120913257503200</v>
       </c>
       <c r="B2">
-        <f>A3-A2</f>
-        <v>2353200</v>
+        <f t="shared" ref="B2:B33" si="0">A3-A2</f>
+        <v>5012200</v>
       </c>
       <c r="C2">
-        <f>AVERAGE(B2:B184)</f>
-        <v>1692365399.453552</v>
+        <f>AVERAGE(B2:B192)</f>
+        <v>1880939657.5916231</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1043383180596400</v>
+        <v>1120913262515400</v>
       </c>
       <c r="B3">
-        <f>A4-A3</f>
-        <v>6002420500</v>
+        <f t="shared" si="0"/>
+        <v>5992112000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1043389183016900</v>
+        <v>1120919254627400</v>
       </c>
       <c r="B4">
-        <f>A5-A4</f>
-        <v>4489300</v>
+        <f t="shared" si="0"/>
+        <v>6000995300</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1043389187506200</v>
+        <v>1120925255622700</v>
       </c>
       <c r="B5">
-        <f>A6-A5</f>
-        <v>5857300</v>
+        <f t="shared" si="0"/>
+        <v>8864500</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1043389193363500</v>
+        <v>1120925264487200</v>
       </c>
       <c r="B6">
-        <f>A7-A6</f>
-        <v>4002059100</v>
+        <f t="shared" si="0"/>
+        <v>19266800</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1043393195422600</v>
+        <v>1120925283754000</v>
       </c>
       <c r="B7">
-        <f>A8-A7</f>
-        <v>1975136300</v>
+        <f t="shared" si="0"/>
+        <v>1990552900</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1043395170558900</v>
+        <v>1120927274306900</v>
       </c>
       <c r="B8">
-        <f>A9-A8</f>
-        <v>602400</v>
+        <f t="shared" si="0"/>
+        <v>2009257690</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1043395171161300</v>
+        <v>1120929283564590</v>
       </c>
       <c r="B9">
-        <f>A10-A9</f>
-        <v>753200</v>
+        <f t="shared" si="0"/>
+        <v>1969686110</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1043395171914500</v>
+        <v>1120931253250700</v>
       </c>
       <c r="B10">
-        <f>A11-A10</f>
-        <v>3026785600</v>
+        <f t="shared" si="0"/>
+        <v>3039506900</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1043398198700100</v>
+        <v>1120934292757600</v>
       </c>
       <c r="B11">
-        <f>A12-A11</f>
-        <v>1006293000</v>
+        <f t="shared" si="0"/>
+        <v>2960990590</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1043399204993100</v>
+        <v>1120937253748190</v>
       </c>
       <c r="B12">
-        <f>A13-A12</f>
-        <v>1969771200</v>
+        <f t="shared" si="0"/>
+        <v>5209910</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1043401174764300</v>
+        <v>1120937258958100</v>
       </c>
       <c r="B13">
-        <f>A14-A13</f>
-        <v>2025859600</v>
+        <f t="shared" si="0"/>
+        <v>2006513900</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1043403200623900</v>
+        <v>1120939265472000</v>
       </c>
       <c r="B14">
-        <f>A15-A14</f>
-        <v>1012001400</v>
+        <f t="shared" si="0"/>
+        <v>32195600</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1043404212625300</v>
+        <v>1120939297667600</v>
       </c>
       <c r="B15">
-        <f>A16-A15</f>
-        <v>2964330200</v>
+        <f t="shared" si="0"/>
+        <v>1006682700</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1043407176955500</v>
+        <v>1120940304350300</v>
       </c>
       <c r="B16">
-        <f>A17-A16</f>
-        <v>5584700</v>
+        <f t="shared" si="0"/>
+        <v>2952034500</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1043407182540200</v>
+        <v>1120943256384800</v>
       </c>
       <c r="B17">
-        <f>A18-A17</f>
-        <v>920600</v>
+        <f t="shared" si="0"/>
+        <v>1044727790</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1043407183460800</v>
+        <v>1120944301112590</v>
       </c>
       <c r="B18">
-        <f>A19-A18</f>
-        <v>1019459200</v>
+        <f t="shared" si="0"/>
+        <v>1005694810</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1043408202920000</v>
+        <v>1120945306807400</v>
       </c>
       <c r="B19">
-        <f>A20-A19</f>
-        <v>1012701200</v>
+        <f t="shared" si="0"/>
+        <v>3949502000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1043409215621200</v>
+        <v>1120949256309400</v>
       </c>
       <c r="B20">
-        <f>A21-A20</f>
-        <v>970790100</v>
+        <f t="shared" si="0"/>
+        <v>46432700</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1043410186411300</v>
+        <v>1120949302742100</v>
       </c>
       <c r="B21">
-        <f>A22-A21</f>
-        <v>2986946600</v>
+        <f t="shared" si="0"/>
+        <v>1005835900</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1043413173357900</v>
+        <v>1120950308578000</v>
       </c>
       <c r="B22">
-        <f>A23-A22</f>
-        <v>30730900</v>
+        <f t="shared" si="0"/>
+        <v>1949291900</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1043413204088800</v>
+        <v>1120952257869900</v>
       </c>
       <c r="B23">
-        <f>A24-A23</f>
-        <v>1016883800</v>
+        <f t="shared" si="0"/>
+        <v>2996244400</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1043414220972600</v>
+        <v>1120955254114300</v>
       </c>
       <c r="B24">
-        <f>A25-A24</f>
-        <v>971282400</v>
+        <f t="shared" si="0"/>
+        <v>2848290</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1043415192255000</v>
+        <v>1120955256962590</v>
       </c>
       <c r="B25">
-        <f>A26-A25</f>
-        <v>1997787100</v>
+        <f t="shared" si="0"/>
+        <v>56211410</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1043417190042100</v>
+        <v>1120955313174000</v>
       </c>
       <c r="B26">
-        <f>A27-A26</f>
-        <v>1982988000</v>
+        <f t="shared" si="0"/>
+        <v>980775100</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1043419173030100</v>
+        <v>1120956293949100</v>
       </c>
       <c r="B27">
-        <f>A28-A27</f>
-        <v>50322500</v>
+        <f t="shared" si="0"/>
+        <v>969291990</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1043419223352600</v>
+        <v>1120957263241090</v>
       </c>
       <c r="B28">
-        <f>A29-A28</f>
-        <v>2951375600</v>
+        <f t="shared" si="0"/>
+        <v>53316410</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1043422174728200</v>
+        <v>1120957316557500</v>
       </c>
       <c r="B29">
-        <f>A30-A29</f>
-        <v>1033100600</v>
+        <f t="shared" si="0"/>
+        <v>1952176400</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1043423207828800</v>
+        <v>1120959268733900</v>
       </c>
       <c r="B30">
-        <f>A31-A30</f>
-        <v>510900</v>
+        <f t="shared" si="0"/>
+        <v>1985541100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1043423208339700</v>
+        <v>1120961254275000</v>
       </c>
       <c r="B31">
-        <f>A32-A31</f>
-        <v>1016879700</v>
+        <f t="shared" si="0"/>
+        <v>1069604090</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1043424225219400</v>
+        <v>1120962323879090</v>
       </c>
       <c r="B32">
-        <f>A33-A32</f>
-        <v>976388300</v>
+        <f t="shared" si="0"/>
+        <v>1950437310</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1043425201607700</v>
+        <v>1120964274316400</v>
       </c>
       <c r="B33">
-        <f>A34-A33</f>
-        <v>1581100</v>
+        <f t="shared" si="0"/>
+        <v>2979587100</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1043425203188800</v>
+        <v>1120967253903500</v>
       </c>
       <c r="B34">
-        <f>A35-A34</f>
-        <v>3480300</v>
+        <f t="shared" ref="B34:B65" si="1">A35-A34</f>
+        <v>75864500</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1043425206669100</v>
+        <v>1120967329768000</v>
       </c>
       <c r="B35">
-        <f>A36-A35</f>
-        <v>1993105500</v>
+        <f t="shared" si="1"/>
+        <v>1946729900</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1043427199774600</v>
+        <v>1120969276497900</v>
       </c>
       <c r="B36">
-        <f>A37-A36</f>
-        <v>1014579000</v>
+        <f t="shared" si="1"/>
+        <v>39140000</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1043428214353600</v>
+        <v>1120969315637900</v>
       </c>
       <c r="B37">
-        <f>A38-A37</f>
-        <v>2960292600</v>
+        <f t="shared" si="1"/>
+        <v>1964282600</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1043431174646200</v>
+        <v>1120971279920500</v>
       </c>
       <c r="B38">
-        <f>A39-A38</f>
-        <v>1030715800</v>
+        <f t="shared" si="1"/>
+        <v>1975774000</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1043432205362000</v>
+        <v>1120973255694500</v>
       </c>
       <c r="B39">
-        <f>A40-A39</f>
-        <v>1009512400</v>
+        <f t="shared" si="1"/>
+        <v>1062477300</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1043433214874400</v>
+        <v>1120974318171800</v>
       </c>
       <c r="B40">
-        <f>A41-A40</f>
-        <v>3959826500</v>
+        <f t="shared" si="1"/>
+        <v>1964988000</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1043437174700900</v>
+        <v>1120976283159800</v>
       </c>
       <c r="B41">
-        <f>A42-A41</f>
-        <v>36812400</v>
+        <f t="shared" si="1"/>
+        <v>2971608400</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1043437211513300</v>
+        <v>1120979254768200</v>
       </c>
       <c r="B42">
-        <f>A43-A42</f>
-        <v>1009258400</v>
+        <f t="shared" si="1"/>
+        <v>67356200</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1043438220771700</v>
+        <v>1120979322124400</v>
       </c>
       <c r="B43">
-        <f>A44-A43</f>
-        <v>2000500800</v>
+        <f t="shared" si="1"/>
+        <v>1966985090</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1043440221272500</v>
+        <v>1120981289109490</v>
       </c>
       <c r="B44">
-        <f>A45-A44</f>
-        <v>2951701800</v>
+        <f t="shared" si="1"/>
+        <v>1057112310</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1043443172974300</v>
+        <v>1120982346221800</v>
       </c>
       <c r="B45">
-        <f>A46-A45</f>
-        <v>48216300</v>
+        <f t="shared" si="1"/>
+        <v>947687100</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1043443221190600</v>
+        <v>1120983293908900</v>
       </c>
       <c r="B46">
-        <f>A47-A46</f>
-        <v>2000877300</v>
+        <f t="shared" si="1"/>
+        <v>1034010100</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1043445222067900</v>
+        <v>1120984327919000</v>
       </c>
       <c r="B47">
-        <f>A48-A47</f>
-        <v>1991087300</v>
+        <f t="shared" si="1"/>
+        <v>923691390</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1043447213155200</v>
+        <v>1120985251610390</v>
       </c>
       <c r="B48">
-        <f>A49-A48</f>
-        <v>1962091000</v>
+        <f t="shared" si="1"/>
+        <v>3047641110</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1043449175246200</v>
+        <v>1120988299251500</v>
       </c>
       <c r="B49">
-        <f>A50-A49</f>
-        <v>3042274100</v>
+        <f t="shared" si="1"/>
+        <v>1033869900</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1043452217520300</v>
+        <v>1120989333121400</v>
       </c>
       <c r="B50">
-        <f>A51-A50</f>
-        <v>1408800</v>
+        <f t="shared" si="1"/>
+        <v>1921736300</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1043452218929100</v>
+        <v>1120991254857700</v>
       </c>
       <c r="B51">
-        <f>A52-A51</f>
-        <v>1006541100</v>
+        <f t="shared" si="1"/>
+        <v>102097000</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1043453225470200</v>
+        <v>1120991356954700</v>
       </c>
       <c r="B52">
-        <f>A53-A52</f>
-        <v>401600</v>
+        <f t="shared" si="1"/>
+        <v>1945282800</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1043453225871800</v>
+        <v>1120993302237500</v>
       </c>
       <c r="B53">
-        <f>A54-A53</f>
-        <v>1945579300</v>
+        <f t="shared" si="1"/>
+        <v>1051829000</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1043455171451100</v>
+        <v>1120994354066500</v>
       </c>
       <c r="B54">
-        <f>A55-A54</f>
-        <v>1918000</v>
+        <f t="shared" si="1"/>
+        <v>2896363500</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1043455173369100</v>
+        <v>1120997250430000</v>
       </c>
       <c r="B55">
-        <f>A56-A55</f>
-        <v>58418800</v>
+        <f t="shared" si="1"/>
+        <v>1056547700</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1043455231787900</v>
+        <v>1120998306977700</v>
       </c>
       <c r="B56">
-        <f>A57-A56</f>
-        <v>2999466100</v>
+        <f t="shared" si="1"/>
+        <v>57911100</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1043458231254000</v>
+        <v>1120998364888800</v>
       </c>
       <c r="B57">
-        <f>A58-A57</f>
-        <v>1414200</v>
+        <f t="shared" si="1"/>
+        <v>4890171900</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1043458232668200</v>
+        <v>1121003255060700</v>
       </c>
       <c r="B58">
-        <f>A59-A58</f>
-        <v>2798900</v>
+        <f t="shared" si="1"/>
+        <v>57009600</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1043458235467100</v>
+        <v>1121003312070300</v>
       </c>
       <c r="B59">
-        <f>A60-A59</f>
-        <v>2939222100</v>
+        <f t="shared" si="1"/>
+        <v>57653300</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1043461174689200</v>
+        <v>1121003369723600</v>
       </c>
       <c r="B60">
-        <f>A61-A60</f>
-        <v>2061169400</v>
+        <f t="shared" si="1"/>
+        <v>1946460700</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1043463235858600</v>
+        <v>1121005316184300</v>
       </c>
       <c r="B61">
-        <f>A62-A61</f>
-        <v>191100</v>
+        <f t="shared" si="1"/>
+        <v>3940182390</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1043463236049700</v>
+        <v>1121009256366690</v>
       </c>
       <c r="B62">
-        <f>A63-A62</f>
-        <v>2006785800</v>
+        <f t="shared" si="1"/>
+        <v>1065196110</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1043465242835500</v>
+        <v>1121010321562800</v>
       </c>
       <c r="B63">
-        <f>A64-A63</f>
-        <v>893700</v>
+        <f t="shared" si="1"/>
+        <v>55162400</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1043465243729200</v>
+        <v>1121010376725200</v>
       </c>
       <c r="B64">
-        <f>A65-A64</f>
-        <v>1985268500</v>
+        <f t="shared" si="1"/>
+        <v>1949265490</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1043467228997700</v>
+        <v>1121012325990690</v>
       </c>
       <c r="B65">
-        <f>A66-A65</f>
-        <v>1407600</v>
+        <f t="shared" si="1"/>
+        <v>2928628910</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1043467230405300</v>
+        <v>1121015254619600</v>
       </c>
       <c r="B66">
-        <f>A67-A66</f>
-        <v>1011600400</v>
+        <f t="shared" ref="B66:B97" si="2">A67-A66</f>
+        <v>2076093390</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1043468242005700</v>
+        <v>1121017330712990</v>
       </c>
       <c r="B67">
-        <f>A68-A67</f>
-        <v>2456200</v>
+        <f t="shared" si="2"/>
+        <v>54125410</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1043468244461900</v>
+        <v>1121017384838400</v>
       </c>
       <c r="B68">
-        <f>A69-A68</f>
-        <v>1929193500</v>
+        <f t="shared" si="2"/>
+        <v>1947665600</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1043470173655400</v>
+        <v>1121019332504000</v>
       </c>
       <c r="B69">
-        <f>A70-A69</f>
-        <v>77082000</v>
+        <f t="shared" si="2"/>
+        <v>1925146000</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1043470250737400</v>
+        <v>1121021257650000</v>
       </c>
       <c r="B70">
-        <f>A71-A70</f>
-        <v>629500</v>
+        <f t="shared" si="2"/>
+        <v>3080202800</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1043470251366900</v>
+        <v>1121024337852800</v>
       </c>
       <c r="B71">
-        <f>A72-A71</f>
-        <v>1974938900</v>
+        <f t="shared" si="2"/>
+        <v>2918249300</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1043472226305800</v>
+        <v>1121027256102100</v>
       </c>
       <c r="B72">
-        <f>A73-A72</f>
-        <v>1023475300</v>
+        <f t="shared" si="2"/>
+        <v>1620090</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1043473249781100</v>
+        <v>1121027257722190</v>
       </c>
       <c r="B73">
-        <f>A74-A73</f>
-        <v>806300</v>
+        <f t="shared" si="2"/>
+        <v>2080811210</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1043473250587400</v>
+        <v>1121029338533400</v>
       </c>
       <c r="B74">
-        <f>A75-A74</f>
-        <v>3980400000</v>
+        <f t="shared" si="2"/>
+        <v>55772100</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1043477230987400</v>
+        <v>1121029394305500</v>
       </c>
       <c r="B75">
-        <f>A76-A75</f>
-        <v>1135200</v>
+        <f t="shared" si="2"/>
+        <v>2868008490</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1043477232122600</v>
+        <v>1121032262313990</v>
       </c>
       <c r="B76">
-        <f>A77-A76</f>
-        <v>2857500</v>
+        <f t="shared" si="2"/>
+        <v>2081197700</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1043477234980100</v>
+        <v>1121034343511690</v>
       </c>
       <c r="B77">
-        <f>A78-A77</f>
-        <v>520734400</v>
+        <f t="shared" si="2"/>
+        <v>55144700</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1043477755714500</v>
+        <v>1121034398656390</v>
       </c>
       <c r="B78">
-        <f>A79-A78</f>
-        <v>1422802400</v>
+        <f t="shared" si="2"/>
+        <v>1950499110</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1043479178516900</v>
+        <v>1121036349155500</v>
       </c>
       <c r="B79">
-        <f>A80-A79</f>
-        <v>1469800</v>
+        <f t="shared" si="2"/>
+        <v>52140990</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1043479179986700</v>
+        <v>1121036401296490</v>
       </c>
       <c r="B80">
-        <f>A81-A80</f>
-        <v>3050512100</v>
+        <f t="shared" si="2"/>
+        <v>861544810</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1043482230498800</v>
+        <v>1121037262841300</v>
       </c>
       <c r="B81">
-        <f>A82-A81</f>
-        <v>530639000</v>
+        <f t="shared" si="2"/>
+        <v>4091519100</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1043482761137800</v>
+        <v>1121041354360400</v>
       </c>
       <c r="B82">
-        <f>A83-A82</f>
-        <v>2416771800</v>
+        <f t="shared" si="2"/>
+        <v>52310200</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1043485177909600</v>
+        <v>1121041406670600</v>
       </c>
       <c r="B83">
-        <f>A84-A83</f>
-        <v>2053214300</v>
+        <f t="shared" si="2"/>
+        <v>860982300</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1043487231123900</v>
+        <v>1121042267652900</v>
       </c>
       <c r="B84">
-        <f>A85-A84</f>
-        <v>1031162900</v>
+        <f t="shared" si="2"/>
+        <v>1091006000</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1043488262286800</v>
+        <v>1121043358658900</v>
       </c>
       <c r="B85">
-        <f>A86-A85</f>
-        <v>1140300</v>
+        <f t="shared" si="2"/>
+        <v>3049818100</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1043488263427100</v>
+        <v>1121046408477000</v>
       </c>
       <c r="B86">
-        <f>A87-A86</f>
-        <v>2915635500</v>
+        <f t="shared" si="2"/>
+        <v>865091900</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1043491179062600</v>
+        <v>1121047273568900</v>
       </c>
       <c r="B87">
-        <f>A88-A87</f>
-        <v>1052078600</v>
+        <f t="shared" si="2"/>
+        <v>1089915700</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1043492231141200</v>
+        <v>1121048363484600</v>
       </c>
       <c r="B88">
-        <f>A89-A88</f>
-        <v>534873700</v>
+        <f t="shared" si="2"/>
+        <v>914913600</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1043492766014900</v>
+        <v>1121049278398200</v>
       </c>
       <c r="B89">
-        <f>A90-A89</f>
-        <v>4464529300</v>
+        <f t="shared" si="2"/>
+        <v>2134650800</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1043497230544200</v>
+        <v>1121051413049000</v>
       </c>
       <c r="B90">
-        <f>A91-A90</f>
-        <v>1688800</v>
+        <f t="shared" si="2"/>
+        <v>1953701600</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1043497232233000</v>
+        <v>1121053366750600</v>
       </c>
       <c r="B91">
-        <f>A92-A91</f>
-        <v>538796800</v>
+        <f t="shared" si="2"/>
+        <v>915596200</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1043497771029800</v>
+        <v>1121054282346800</v>
       </c>
       <c r="B92">
-        <f>A93-A92</f>
-        <v>1009800</v>
+        <f t="shared" si="2"/>
+        <v>2132483300</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1043497772039600</v>
+        <v>1121056414830100</v>
       </c>
       <c r="B93">
-        <f>A94-A93</f>
-        <v>3023700</v>
+        <f t="shared" si="2"/>
+        <v>1957092700</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1043497775063300</v>
+        <v>1121058371922800</v>
       </c>
       <c r="B94">
-        <f>A95-A94</f>
-        <v>493326000</v>
+        <f t="shared" si="2"/>
+        <v>915721890</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1043498268389300</v>
+        <v>1121059287644690</v>
       </c>
       <c r="B95">
-        <f>A96-A95</f>
-        <v>3962459900</v>
+        <f t="shared" si="2"/>
+        <v>2132930710</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1043502230849200</v>
+        <v>1121061420575400</v>
       </c>
       <c r="B96">
-        <f>A97-A96</f>
-        <v>1043264200</v>
+        <f t="shared" si="2"/>
+        <v>1955491200</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1043503274113400</v>
+        <v>1121063376066600</v>
       </c>
       <c r="B97">
-        <f>A98-A97</f>
-        <v>1469700</v>
+        <f t="shared" si="2"/>
+        <v>915667500</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1043503275583100</v>
+        <v>1121064291734100</v>
       </c>
       <c r="B98">
-        <f>A99-A98</f>
-        <v>2185700</v>
+        <f t="shared" ref="B98:B129" si="3">A99-A98</f>
+        <v>2134212990</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1043503277768800</v>
+        <v>1121066425947090</v>
       </c>
       <c r="B99">
-        <f>A100-A99</f>
-        <v>3954376600</v>
+        <f t="shared" si="3"/>
+        <v>1950948510</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1043507232145400</v>
+        <v>1121068376895600</v>
       </c>
       <c r="B100">
-        <f>A101-A100</f>
-        <v>549186100</v>
+        <f t="shared" si="3"/>
+        <v>51748800</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1043507781331500</v>
+        <v>1121068428644400</v>
       </c>
       <c r="B101">
-        <f>A102-A101</f>
-        <v>500253500</v>
+        <f t="shared" si="3"/>
+        <v>866110900</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1043508281585000</v>
+        <v>1121069294755300</v>
       </c>
       <c r="B102">
-        <f>A103-A102</f>
-        <v>3951254700</v>
+        <f t="shared" si="3"/>
+        <v>4086195800</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1043512232839700</v>
+        <v>1121073380951100</v>
       </c>
       <c r="B103">
-        <f>A104-A103</f>
-        <v>552989200</v>
+        <f t="shared" si="3"/>
+        <v>49687000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1043512785828900</v>
+        <v>1121073430638100</v>
       </c>
       <c r="B104">
-        <f>A105-A104</f>
-        <v>499518100</v>
+        <f t="shared" si="3"/>
+        <v>867466390</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1043513285347000</v>
+        <v>1121074298104490</v>
       </c>
       <c r="B105">
-        <f>A106-A105</f>
-        <v>3945578500</v>
+        <f t="shared" si="3"/>
+        <v>4085551800</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1043517230925500</v>
+        <v>1121078383656290</v>
       </c>
       <c r="B106">
-        <f>A107-A106</f>
-        <v>1058222600</v>
+        <f t="shared" si="3"/>
+        <v>51980710</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1043518289148100</v>
+        <v>1121078435637000</v>
       </c>
       <c r="B107">
-        <f>A108-A107</f>
-        <v>1361700</v>
+        <f t="shared" si="3"/>
+        <v>866538500</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1043518290509800</v>
+        <v>1121079302175500</v>
       </c>
       <c r="B108">
-        <f>A109-A108</f>
-        <v>3943352800</v>
+        <f t="shared" si="3"/>
+        <v>1081690800</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1043522233862600</v>
+        <v>1121080383866300</v>
       </c>
       <c r="B109">
-        <f>A110-A109</f>
-        <v>1532900</v>
+        <f t="shared" si="3"/>
+        <v>3055938900</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1043522235395500</v>
+        <v>1121083439805200</v>
       </c>
       <c r="B110">
-        <f>A111-A110</f>
-        <v>2953800</v>
+        <f t="shared" si="3"/>
+        <v>863308800</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1043522238349300</v>
+        <v>1121084303114000</v>
       </c>
       <c r="B111">
-        <f>A112-A111</f>
-        <v>554998700</v>
+        <f t="shared" si="3"/>
+        <v>1083426400</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1043522793348000</v>
+        <v>1121085386540400</v>
       </c>
       <c r="B112">
-        <f>A113-A112</f>
-        <v>503323300</v>
+        <f t="shared" si="3"/>
+        <v>3054164200</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1043523296671300</v>
+        <v>1121088440704600</v>
       </c>
       <c r="B113">
-        <f>A114-A113</f>
-        <v>3935523800</v>
+        <f t="shared" si="3"/>
+        <v>863834100</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1043527232195100</v>
+        <v>1121089304538700</v>
       </c>
       <c r="B114">
-        <f>A115-A114</f>
-        <v>1065723000</v>
+        <f t="shared" si="3"/>
+        <v>1082378090</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1043528297918100</v>
+        <v>1121090386916790</v>
       </c>
       <c r="B115">
-        <f>A116-A115</f>
-        <v>204500</v>
+        <f t="shared" si="3"/>
+        <v>2004630810</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1043528298122600</v>
+        <v>1121092391547600</v>
       </c>
       <c r="B116">
-        <f>A117-A116</f>
-        <v>771500</v>
+        <f t="shared" si="3"/>
+        <v>1050183700</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1043528298894100</v>
+        <v>1121093441731300</v>
       </c>
       <c r="B117">
-        <f>A118-A117</f>
-        <v>3934366200</v>
+        <f t="shared" si="3"/>
+        <v>868389700</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1043532233260300</v>
+        <v>1121094310121000</v>
       </c>
       <c r="B118">
-        <f>A119-A118</f>
-        <v>561409300</v>
+        <f t="shared" si="3"/>
+        <v>3087001000</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1043532794669600</v>
+        <v>1121097397122000</v>
       </c>
       <c r="B119">
-        <f>A120-A119</f>
-        <v>506126900</v>
+        <f t="shared" si="3"/>
+        <v>1049826200</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1043533300796500</v>
+        <v>1121098446948200</v>
       </c>
       <c r="B120">
-        <f>A121-A120</f>
-        <v>3932899300</v>
+        <f t="shared" si="3"/>
+        <v>868616400</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1043537233695800</v>
+        <v>1121099315564600</v>
       </c>
       <c r="B121">
-        <f>A122-A121</f>
-        <v>563024900</v>
+        <f t="shared" si="3"/>
+        <v>3085762300</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1043537796720700</v>
+        <v>1121102401326900</v>
       </c>
       <c r="B122">
-        <f>A123-A122</f>
-        <v>4437621800</v>
+        <f t="shared" si="3"/>
+        <v>1049853300</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1043542234342500</v>
+        <v>1121103451180200</v>
       </c>
       <c r="B123">
-        <f>A124-A123</f>
-        <v>246600</v>
+        <f t="shared" si="3"/>
+        <v>869208200</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1043542234589100</v>
+        <v>1121104320388400</v>
       </c>
       <c r="B124">
-        <f>A125-A124</f>
-        <v>673100</v>
+        <f t="shared" si="3"/>
+        <v>1135115600</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1043542235262200</v>
+        <v>1121105455504000</v>
       </c>
       <c r="B125">
-        <f>A126-A125</f>
-        <v>563243000</v>
+        <f t="shared" si="3"/>
+        <v>1949696500</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1043542798505200</v>
+        <v>1121107405200500</v>
       </c>
       <c r="B126">
-        <f>A127-A126</f>
-        <v>505689200</v>
+        <f t="shared" si="3"/>
+        <v>1919675400</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1043543304194400</v>
+        <v>1121109324875900</v>
       </c>
       <c r="B127">
-        <f>A128-A127</f>
-        <v>3930259100</v>
+        <f t="shared" si="3"/>
+        <v>1134374000</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1043547234453500</v>
+        <v>1121110459249900</v>
       </c>
       <c r="B128">
-        <f>A129-A128</f>
-        <v>566396100</v>
+        <f t="shared" si="3"/>
+        <v>1947018400</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1043547800849600</v>
+        <v>1121112406268300</v>
       </c>
       <c r="B129">
-        <f>A130-A129</f>
-        <v>504513700</v>
+        <f t="shared" si="3"/>
+        <v>1923924690</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1043548305363300</v>
+        <v>1121114330192990</v>
       </c>
       <c r="B130">
-        <f>A131-A130</f>
-        <v>3929937300</v>
+        <f t="shared" ref="B130:B161" si="4">A131-A130</f>
+        <v>1133442910</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1043552235300600</v>
+        <v>1121115463635900</v>
       </c>
       <c r="B131">
-        <f>A132-A131</f>
-        <v>1073733100</v>
+        <f t="shared" si="4"/>
+        <v>1946705200</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1043553309033700</v>
+        <v>1121117410341100</v>
       </c>
       <c r="B132">
-        <f>A133-A132</f>
-        <v>1689500</v>
+        <f t="shared" si="4"/>
+        <v>3058353790</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1043553310723200</v>
+        <v>1121120468694890</v>
       </c>
       <c r="B133">
-        <f>A134-A133</f>
-        <v>2696300</v>
+        <f t="shared" si="4"/>
+        <v>1945560510</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1043553313419500</v>
+        <v>1121122414255400</v>
       </c>
       <c r="B134">
-        <f>A135-A134</f>
-        <v>3925178000</v>
+        <f t="shared" si="4"/>
+        <v>3057989600</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1043557238597500</v>
+        <v>1121125472245000</v>
       </c>
       <c r="B135">
-        <f>A136-A135</f>
-        <v>567401700</v>
+        <f t="shared" si="4"/>
+        <v>1946750800</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1043557805999200</v>
+        <v>1121127418995800</v>
       </c>
       <c r="B136">
-        <f>A137-A136</f>
-        <v>4431668100</v>
+        <f t="shared" si="4"/>
+        <v>3055577100</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1043562237667300</v>
+        <v>1121130474572900</v>
       </c>
       <c r="B137">
-        <f>A138-A137</f>
-        <v>1031100</v>
+        <f t="shared" si="4"/>
+        <v>1948645300</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1043562238698400</v>
+        <v>1121132423218200</v>
       </c>
       <c r="B138">
-        <f>A139-A138</f>
-        <v>1130700</v>
+        <f t="shared" si="4"/>
+        <v>3055709200</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1043562239829100</v>
+        <v>1121135478927400</v>
       </c>
       <c r="B139">
-        <f>A140-A139</f>
-        <v>570341300</v>
+        <f t="shared" si="4"/>
+        <v>1948991100</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1043562810170400</v>
+        <v>1121137427918500</v>
       </c>
       <c r="B140">
-        <f>A141-A140</f>
-        <v>4429817600</v>
+        <f t="shared" si="4"/>
+        <v>3055584200</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1043567239988000</v>
+        <v>1121140483502700</v>
       </c>
       <c r="B141">
-        <f>A142-A141</f>
-        <v>1014600</v>
+        <f t="shared" si="4"/>
+        <v>1948353800</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1043567241002600</v>
+        <v>1121142431856500</v>
       </c>
       <c r="B142">
-        <f>A143-A142</f>
-        <v>2169600</v>
+        <f t="shared" si="4"/>
+        <v>3055079000</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1043567243172200</v>
+        <v>1121145486935500</v>
       </c>
       <c r="B143">
-        <f>A144-A143</f>
-        <v>1080500600</v>
+        <f t="shared" si="4"/>
+        <v>1949035200</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1043568323672800</v>
+        <v>1121147435970700</v>
       </c>
       <c r="B144">
-        <f>A145-A144</f>
-        <v>1695300</v>
+        <f t="shared" si="4"/>
+        <v>55304690</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1043568325368100</v>
+        <v>1121147491275390</v>
       </c>
       <c r="B145">
-        <f>A146-A145</f>
-        <v>3914382400</v>
+        <f t="shared" si="4"/>
+        <v>4948323910</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1043572239750500</v>
+        <v>1121152439599300</v>
       </c>
       <c r="B146">
-        <f>A147-A146</f>
-        <v>1505000</v>
+        <f t="shared" si="4"/>
+        <v>57921100</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1043572241255500</v>
+        <v>1121152497520400</v>
       </c>
       <c r="B147">
-        <f>A148-A147</f>
-        <v>2510400</v>
+        <f t="shared" si="4"/>
+        <v>4946499700</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1043572243765900</v>
+        <v>1121157444020100</v>
       </c>
       <c r="B148">
-        <f>A149-A148</f>
-        <v>571335600</v>
+        <f t="shared" si="4"/>
+        <v>58505090</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1043572815101500</v>
+        <v>1121157502525190</v>
       </c>
       <c r="B149">
-        <f>A150-A149</f>
-        <v>4425732300</v>
+        <f t="shared" si="4"/>
+        <v>4941418200</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1043577240833800</v>
+        <v>1121162443943390</v>
       </c>
       <c r="B150">
-        <f>A151-A150</f>
-        <v>5001070200</v>
+        <f t="shared" si="4"/>
+        <v>63183300</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1043582241904000</v>
+        <v>1121162507126690</v>
       </c>
       <c r="B151">
-        <f>A152-A151</f>
-        <v>1390900</v>
+        <f t="shared" si="4"/>
+        <v>4942007510</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1043582243294900</v>
+        <v>1121167449134200</v>
       </c>
       <c r="B152">
-        <f>A153-A152</f>
-        <v>1827400</v>
+        <f t="shared" si="4"/>
+        <v>59779300</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1043582245122300</v>
+        <v>1121167508913500</v>
       </c>
       <c r="B153">
-        <f>A154-A153</f>
-        <v>574716300</v>
+        <f t="shared" si="4"/>
+        <v>4940892300</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1043582819838600</v>
+        <v>1121172449805800</v>
       </c>
       <c r="B154">
-        <f>A155-A154</f>
-        <v>4422907200</v>
+        <f t="shared" si="4"/>
+        <v>61379300</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1043587242745800</v>
+        <v>1121172511185100</v>
       </c>
       <c r="B155">
-        <f>A156-A155</f>
-        <v>580833400</v>
+        <f t="shared" si="4"/>
+        <v>4942711900</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1043587823579200</v>
+        <v>1121177453897000</v>
       </c>
       <c r="B156">
-        <f>A157-A156</f>
-        <v>4420477900</v>
+        <f t="shared" si="4"/>
+        <v>62281200</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1043592244057100</v>
+        <v>1121177516178200</v>
       </c>
       <c r="B157">
-        <f>A158-A157</f>
-        <v>5002072700</v>
+        <f t="shared" si="4"/>
+        <v>4938582300</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1043597246129800</v>
+        <v>1121182454760500</v>
       </c>
       <c r="B158">
-        <f>A159-A158</f>
-        <v>1518100</v>
+        <f t="shared" si="4"/>
+        <v>66314100</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1043597247647900</v>
+        <v>1121182521074600</v>
       </c>
       <c r="B159">
-        <f>A160-A159</f>
-        <v>584499400</v>
+        <f t="shared" si="4"/>
+        <v>4938299400</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1043597832147300</v>
+        <v>1121187459374000</v>
       </c>
       <c r="B160">
-        <f>A161-A160</f>
-        <v>1805700</v>
+        <f t="shared" si="4"/>
+        <v>63696100</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1043597833953000</v>
+        <v>1121187523070100</v>
       </c>
       <c r="B161">
-        <f>A162-A161</f>
-        <v>4410219400</v>
+        <f t="shared" si="4"/>
+        <v>1941145690</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1043602244172400</v>
+        <v>1121189464215790</v>
       </c>
       <c r="B162">
-        <f>A163-A162</f>
-        <v>3079800</v>
+        <f t="shared" ref="B162:B193" si="5">A163-A162</f>
+        <v>3062946410</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1043602247252200</v>
+        <v>1121192527162200</v>
       </c>
       <c r="B163">
-        <f>A164-A163</f>
-        <v>579100</v>
+        <f t="shared" si="5"/>
+        <v>1941155700</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1043602247831300</v>
+        <v>1121194468317900</v>
       </c>
       <c r="B164">
-        <f>A165-A164</f>
-        <v>4994865100</v>
+        <f t="shared" si="5"/>
+        <v>2000121000</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1043607242696400</v>
+        <v>1121196468438900</v>
       </c>
       <c r="B165">
-        <f>A166-A165</f>
-        <v>530700</v>
+        <f t="shared" si="5"/>
+        <v>1060414800</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1043607243227100</v>
+        <v>1121197528853700</v>
       </c>
       <c r="B166">
-        <f>A167-A166</f>
-        <v>4998777500</v>
+        <f t="shared" si="5"/>
+        <v>3943968990</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1043612242004600</v>
+        <v>1121201472822690</v>
       </c>
       <c r="B167">
-        <f>A168-A167</f>
-        <v>374900</v>
+        <f t="shared" si="5"/>
+        <v>1057792200</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1043612242379500</v>
+        <v>1121202530614890</v>
       </c>
       <c r="B168">
-        <f>A169-A168</f>
-        <v>604682900</v>
+        <f t="shared" si="5"/>
+        <v>3943852510</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1043612847062400</v>
+        <v>1121206474467400</v>
       </c>
       <c r="B169">
-        <f>A170-A169</f>
-        <v>5011470800</v>
+        <f t="shared" si="5"/>
+        <v>1058469400</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1043617858533200</v>
+        <v>1121207532936800</v>
       </c>
       <c r="B170">
-        <f>A171-A170</f>
-        <v>5002795200</v>
+        <f t="shared" si="5"/>
+        <v>3943091890</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1043622861328400</v>
+        <v>1121211476028690</v>
       </c>
       <c r="B171">
-        <f>A172-A171</f>
-        <v>5000794400</v>
+        <f t="shared" si="5"/>
+        <v>1061022300</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1043627862122800</v>
+        <v>1121212537050990</v>
       </c>
       <c r="B172">
-        <f>A173-A172</f>
-        <v>5001686500</v>
+        <f t="shared" si="5"/>
+        <v>3943254010</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1043632863809300</v>
+        <v>1121216480305000</v>
       </c>
       <c r="B173">
-        <f>A174-A173</f>
-        <v>5001830000</v>
+        <f t="shared" si="5"/>
+        <v>1058342800</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1043637865639300</v>
+        <v>1121217538647800</v>
       </c>
       <c r="B174">
-        <f>A175-A174</f>
-        <v>5000805800</v>
+        <f t="shared" si="5"/>
+        <v>3945043590</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1043642866445100</v>
+        <v>1121221483691390</v>
       </c>
       <c r="B175">
-        <f>A176-A175</f>
-        <v>5001227300</v>
+        <f t="shared" si="5"/>
+        <v>1057898010</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1043647867672400</v>
+        <v>1121222541589400</v>
       </c>
       <c r="B176">
-        <f>A177-A176</f>
-        <v>5002218200</v>
+        <f t="shared" si="5"/>
+        <v>3946140300</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1043652869890600</v>
+        <v>1121226487729700</v>
       </c>
       <c r="B177">
-        <f>A178-A177</f>
-        <v>5001148800</v>
+        <f t="shared" si="5"/>
+        <v>1059047600</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1043657871039400</v>
+        <v>1121227546777300</v>
       </c>
       <c r="B178">
-        <f>A179-A178</f>
-        <v>5000703600</v>
+        <f t="shared" si="5"/>
+        <v>3941494900</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1043662871743000</v>
+        <v>1121231488272200</v>
       </c>
       <c r="B179">
-        <f>A180-A179</f>
-        <v>5000985200</v>
+        <f t="shared" si="5"/>
+        <v>1059599390</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1043667872728200</v>
+        <v>1121232547871590</v>
       </c>
       <c r="B180">
-        <f>A181-A180</f>
-        <v>5000094900</v>
+        <f t="shared" si="5"/>
+        <v>5000999010</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1043672872823100</v>
+        <v>1121237548870600</v>
       </c>
       <c r="B181">
-        <f>A182-A181</f>
-        <v>5000693900</v>
+        <f t="shared" si="5"/>
+        <v>96100</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1043677873517000</v>
+        <v>1121237548966700</v>
       </c>
       <c r="B182">
-        <f>A183-A182</f>
-        <v>5000629700</v>
+        <f t="shared" si="5"/>
+        <v>947943500</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1043682874146700</v>
+        <v>1121238496910200</v>
       </c>
       <c r="B183">
-        <f>A184-A183</f>
-        <v>10005935100</v>
+        <f t="shared" si="5"/>
+        <v>4056143690</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1043692880081800</v>
+        <v>1121242553053890</v>
       </c>
       <c r="B184">
-        <f>A185-A184</f>
-        <v>1029500</v>
+        <f t="shared" si="5"/>
+        <v>948445200</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1043692881111300</v>
+        <v>1121243501499090</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="5"/>
+        <v>4052811310</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1121247554310400</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="5"/>
+        <v>948106400</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1121248502416800</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="5"/>
+        <v>2004106300</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1121250506523100</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="5"/>
+        <v>5004353490</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1121255510876590</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="5"/>
+        <v>7004394910</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1121262515271500</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="5"/>
+        <v>109190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1121262515380690</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="5"/>
+        <v>10001504600</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1121272516885290</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="5"/>
+        <v>92510</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1121272516977800</v>
       </c>
     </row>
   </sheetData>
@@ -2176,10 +2248,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A71102-42C7-4FD1-B8C3-1D3588ED0749}">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,1649 +2274,1730 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1043383179586800</v>
+        <v>1120913260017700</v>
       </c>
       <c r="B2">
         <f>A3-A2</f>
-        <v>5011321500</v>
+        <v>2005227000</v>
       </c>
       <c r="C2">
-        <f>AVERAGE(B2:B183)</f>
-        <v>1701653388.4615386</v>
+        <f>AVERAGE(B2:B192)</f>
+        <v>1907110071.7277486</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1043388190908300</v>
+        <v>1120915265244700</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">A4-A3</f>
-        <v>986050700</v>
+        <v>5006510500</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1043389176959000</v>
+        <v>1120920271755200</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>14303800</v>
+        <v>4987620500</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1043389191262800</v>
+        <v>1120925259375700</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>4003382000</v>
+        <v>22499100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1043393194644800</v>
+        <v>1120925281874800</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1006410300</v>
+        <v>1989430300</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1043394201055100</v>
+        <v>1120927271305100</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>968712900</v>
+        <v>2009885390</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1043395169768000</v>
+        <v>1120929281190490</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>1677800</v>
+        <v>1007902510</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1043395171445800</v>
+        <v>1120930289093000</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>3026601600</v>
+        <v>4002065690</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1043398198047400</v>
+        <v>1120934291158690</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>1006513800</v>
+        <v>1004557000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1043399204561200</v>
+        <v>1120935295715690</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>970753000</v>
+        <v>1960457910</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1043400175314200</v>
+        <v>1120937256173600</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>3024995500</v>
+        <v>2007310900</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1043403200309700</v>
+        <v>1120939263484500</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1010170600</v>
+        <v>32639200</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1043404210480300</v>
+        <v>1120939296123700</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>971672900</v>
+        <v>1005178700</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1043405182153200</v>
+        <v>1120940301302400</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>1991204600</v>
+        <v>970959600</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1043407173357800</v>
+        <v>1120941272262000</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>8097400</v>
+        <v>3028011800</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1043407181455200</v>
+        <v>1120944300273800</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1020807600</v>
+        <v>1006041400</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1043408202262800</v>
+        <v>1120945306315200</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1012548500</v>
+        <v>973046200</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1043409214811300</v>
+        <v>1120946279361400</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>971147300</v>
+        <v>3022931000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1043410185958600</v>
+        <v>1120949302292400</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>2000528000</v>
+        <v>1005780890</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1043412186486600</v>
+        <v>1120950308073290</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1017284600</v>
+        <v>976195210</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1043413203771200</v>
+        <v>1120951284268500</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>1015302900</v>
+        <v>3021596390</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1043414219074100</v>
+        <v>1120954305864890</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>971232100</v>
+        <v>950190110</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1043415190306200</v>
+        <v>1120955256055000</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>1999561600</v>
+        <v>56251390</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1043417189867800</v>
+        <v>1120955312306390</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>1015995700</v>
+        <v>979371610</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1043418205863500</v>
+        <v>1120956291678000</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>1017161400</v>
+        <v>970477500</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1043419223024900</v>
+        <v>1120957262155500</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>972499300</v>
+        <v>53521600</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1043420195524200</v>
+        <v>1120957315677100</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1997273800</v>
+        <v>1951102400</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1043422192798000</v>
+        <v>1120959266779500</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>647500</v>
+        <v>41547690</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1043422193445500</v>
+        <v>1120959308327190</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>1014689800</v>
+        <v>3013669710</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1043423208135300</v>
+        <v>1120962321996900</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>387400</v>
+        <v>1951086200</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1043423208522700</v>
+        <v>1120964273083100</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>1963211900</v>
+        <v>40230200</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1043425171734600</v>
+        <v>1120964313313300</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>33713200</v>
+        <v>3015269300</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1043425205447800</v>
+        <v>1120967328582600</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1993067700</v>
+        <v>1947565290</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1043427198515500</v>
+        <v>1120969276147890</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1014607900</v>
+        <v>39232910</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1043428213123400</v>
+        <v>1120969315380800</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>1997884700</v>
+        <v>1963478700</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1043430211008100</v>
+        <v>1120971278859500</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>1993141100</v>
+        <v>1055705090</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1043432204149200</v>
+        <v>1120972334564590</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>1010516800</v>
+        <v>1982936510</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1043433214666000</v>
+        <v>1120974317501100</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>2004163000</v>
+        <v>1964789900</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1043435218829000</v>
+        <v>1120976282291000</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>1991163000</v>
+        <v>1057373900</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1043437209992000</v>
+        <v>1120977339664900</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>1009094600</v>
+        <v>1980992100</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1043438219086600</v>
+        <v>1120979320657000</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>2002003100</v>
+        <v>1967432300</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1043440221089700</v>
+        <v>1120981288089300</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>1990585800</v>
+        <v>1057182900</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1043442211675500</v>
+        <v>1120982345272200</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>1009303900</v>
+        <v>947317000</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1043443220979400</v>
+        <v>1120983292589200</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>2000918600</v>
+        <v>1033667300</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1043445221898000</v>
+        <v>1120984326256500</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>1991076100</v>
+        <v>23869490</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1043447212974100</v>
+        <v>1120984350125990</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>1009837700</v>
+        <v>3947872910</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1043448222811800</v>
+        <v>1120988297998900</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>2003723900</v>
+        <v>1033887100</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1043450226535700</v>
+        <v>1120989331886000</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>906400</v>
+        <v>23126100</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1043450227442100</v>
+        <v>1120989355012100</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>1992876700</v>
+        <v>2001747000</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1043452220318800</v>
+        <v>1120991356759100</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>1553900</v>
+        <v>1944899500</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1043452221872700</v>
+        <v>1120993301658600</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>1004354300</v>
+        <v>1051380700</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1043453226227000</v>
+        <v>1120994353039300</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>1946330400</v>
+        <v>2007970000</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1043455172557400</v>
+        <v>1120996361009300</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>57865800</v>
+        <v>1944878900</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1043455230423200</v>
+        <v>1120998305888200</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>1993285600</v>
+        <v>58345300</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1043457223708800</v>
+        <v>1120998364233500</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>279800</v>
+        <v>994047100</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1043457223988600</v>
+        <v>1120999358280600</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>1009921000</v>
+        <v>3951978190</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1043458233909600</v>
+        <v>1121003310258790</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>2001887500</v>
+        <v>58341200</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1043460235797100</v>
+        <v>1121003368599990</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>1991361800</v>
+        <v>1946739310</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1043462227158900</v>
+        <v>1121005315339300</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>1657500</v>
+        <v>57706700</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1043462228816400</v>
+        <v>1121005373046000</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>1007603900</v>
+        <v>4947496890</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1043463236420300</v>
+        <v>1121010320542890</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>386000</v>
+        <v>55808310</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1043463236806300</v>
+        <v>1121010376351200</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>2007493700</v>
+        <v>1948238900</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1043465244300000</v>
+        <v>1121012324590100</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>1927022300</v>
+        <v>56510400</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1043467171322300</v>
+        <v>1121012381100500</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>61068400</v>
+        <v>4948293000</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1043467232390700</v>
+        <v>1121017329393500</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>939100</v>
+        <v>54865600</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1043467233329800</v>
+        <v>1121017384259100</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B130" si="1">A68-A67</f>
-        <v>1012398000</v>
+        <v>1947959300</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1043468245727800</v>
+        <v>1121019332218400</v>
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>2002722800</v>
+        <v>55921190</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1043470248450600</v>
+        <v>1121019388139590</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>1977375700</v>
+        <v>4948414600</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1043472225826300</v>
+        <v>1121024336554190</v>
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>524784100</v>
+        <v>54871610</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1043472750610400</v>
+        <v>1121024391425800</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>426166700</v>
+        <v>2865719900</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1043473176777100</v>
+        <v>1121027257145700</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
-        <v>74601400</v>
+        <v>2081070100</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1043473251378500</v>
+        <v>1121029338215800</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
-        <v>395800</v>
+        <v>55849100</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1043473251774300</v>
+        <v>1121029394064900</v>
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
-        <v>3982029900</v>
+        <v>2867298200</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1043477233804200</v>
+        <v>1121032261363100</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
-        <v>521356500</v>
+        <v>2081072790</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1043477755160700</v>
+        <v>1121034342435890</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
-        <v>500739700</v>
+        <v>54839210</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1043478255900400</v>
+        <v>1121034397275100</v>
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
-        <v>923366800</v>
+        <v>1950608100</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1043479179267200</v>
+        <v>1121036347883200</v>
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
-        <v>3050485100</v>
+        <v>52971900</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1043482229752300</v>
+        <v>1121036400855100</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
-        <v>530445200</v>
+        <v>861747590</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1043482760197500</v>
+        <v>1121037262602690</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
-        <v>497400400</v>
+        <v>4090700810</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1043483257597900</v>
+        <v>1121041353303500</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
-        <v>3972301800</v>
+        <v>52569090</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1043487229899700</v>
+        <v>1121041405872590</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
-        <v>534901700</v>
+        <v>860672410</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1043487764801400</v>
+        <v>1121042266545000</v>
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
-        <v>1120600</v>
+        <v>1091150000</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1043487765922000</v>
+        <v>1121043357695000</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
-        <v>499127700</v>
+        <v>3050280400</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1043488265049700</v>
+        <v>1121046407975400</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
-        <v>3964897800</v>
+        <v>864066600</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1043492229947500</v>
+        <v>1121047272042000</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
-        <v>535860800</v>
+        <v>1090291800</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1043492765808300</v>
+        <v>1121048362333800</v>
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
-        <v>500527100</v>
+        <v>915004490</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1043493266335400</v>
+        <v>1121049277338290</v>
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
-        <v>3910368300</v>
+        <v>2134725910</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1043497176703700</v>
+        <v>1121051412064200</v>
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
-        <v>56643000</v>
+        <v>1953685700</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1043497233346700</v>
+        <v>1121053365749900</v>
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
-        <v>831700</v>
+        <v>915697400</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1043497234178400</v>
+        <v>1121054281447300</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
-        <v>539707900</v>
+        <v>2133168600</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1043497773886300</v>
+        <v>1121056414615900</v>
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
-        <v>494220600</v>
+        <v>1956101800</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1043498268106900</v>
+        <v>1121058370717700</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
-        <v>3962030900</v>
+        <v>915990400</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1043502230137800</v>
+        <v>1121059286708100</v>
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
-        <v>546010800</v>
+        <v>2132596500</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1043502776148600</v>
+        <v>1121061419304600</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
-        <v>336000</v>
+        <v>1955484000</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1043502776484600</v>
+        <v>1121063374788600</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
-        <v>500230500</v>
+        <v>916109590</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1043503276715100</v>
+        <v>1121064290898190</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
-        <v>3953895400</v>
+        <v>2133781310</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1043507230610500</v>
+        <v>1121066424679500</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
-        <v>549677300</v>
+        <v>1952080200</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1043507780287800</v>
+        <v>1121068376759700</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
-        <v>500283200</v>
+        <v>50749900</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1043508280571000</v>
+        <v>1121068427509600</v>
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
-        <v>3951029000</v>
+        <v>866391400</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1043512231600000</v>
+        <v>1121069293901000</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
-        <v>553103400</v>
+        <v>4085757400</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1043512784703400</v>
+        <v>1121073379658400</v>
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
-        <v>499473500</v>
+        <v>50665500</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1043513284176900</v>
+        <v>1121073430323900</v>
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
-        <v>3946391400</v>
+        <v>867200600</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1043517230568300</v>
+        <v>1121074297524500</v>
       </c>
       <c r="B104">
         <f t="shared" si="1"/>
-        <v>558869100</v>
+        <v>4084723990</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1043517789437400</v>
+        <v>1121078382248490</v>
       </c>
       <c r="B105">
         <f t="shared" si="1"/>
-        <v>816500</v>
+        <v>51725810</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1043517790253900</v>
+        <v>1121078433974300</v>
       </c>
       <c r="B106">
         <f t="shared" si="1"/>
-        <v>501385400</v>
+        <v>867250200</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1043518291639300</v>
+        <v>1121079301224500</v>
       </c>
       <c r="B107">
         <f t="shared" si="1"/>
-        <v>919100</v>
+        <v>1082507400</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1043518292558400</v>
+        <v>1121080383731900</v>
       </c>
       <c r="B108">
         <f t="shared" si="1"/>
-        <v>3944471100</v>
+        <v>3055247600</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1043522237029500</v>
+        <v>1121083438979500</v>
       </c>
       <c r="B109">
         <f t="shared" si="1"/>
-        <v>555140400</v>
+        <v>863883100</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1043522792169900</v>
+        <v>1121084302862600</v>
       </c>
       <c r="B110">
         <f t="shared" si="1"/>
-        <v>503470800</v>
+        <v>1083211290</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1043523295640700</v>
+        <v>1121085386073890</v>
       </c>
       <c r="B111">
         <f t="shared" si="1"/>
-        <v>3936371100</v>
+        <v>3054395200</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1043527232011800</v>
+        <v>1121088440469090</v>
       </c>
       <c r="B112">
         <f t="shared" si="1"/>
-        <v>561170800</v>
+        <v>863786410</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1043527793182600</v>
+        <v>1121089304255500</v>
       </c>
       <c r="B113">
         <f t="shared" si="1"/>
-        <v>207700</v>
+        <v>1082461100</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1043527793390300</v>
+        <v>1121090386716600</v>
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
-        <v>504837000</v>
+        <v>2004018590</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1043528298227300</v>
+        <v>1121092390735190</v>
       </c>
       <c r="B115">
         <f t="shared" si="1"/>
-        <v>3934851400</v>
+        <v>1050838710</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1043532233078700</v>
+        <v>1121093441573900</v>
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
-        <v>561386900</v>
+        <v>867580600</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1043532794465600</v>
+        <v>1121094309154500</v>
       </c>
       <c r="B117">
         <f t="shared" si="1"/>
-        <v>505788800</v>
+        <v>3085919400</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1043533300254400</v>
+        <v>1121097395073900</v>
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
-        <v>3933303200</v>
+        <v>1050702090</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1043537233557600</v>
+        <v>1121098445775990</v>
       </c>
       <c r="B119">
         <f t="shared" si="1"/>
-        <v>562883000</v>
+        <v>868188410</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1043537796440600</v>
+        <v>1121099313964400</v>
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
-        <v>505701600</v>
+        <v>3086303800</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1043538302142200</v>
+        <v>1121102400268200</v>
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
-        <v>146500</v>
+        <v>1049587490</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1043538302288700</v>
+        <v>1121103449855690</v>
       </c>
       <c r="B122">
         <f t="shared" si="1"/>
-        <v>3932679400</v>
+        <v>869638310</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1043542234968100</v>
+        <v>1121104319494000</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
-        <v>563228100</v>
+        <v>1135297590</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1043542798196200</v>
+        <v>1121105454791590</v>
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
-        <v>505842500</v>
+        <v>1949716900</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1043543304038700</v>
+        <v>1121107404508490</v>
       </c>
       <c r="B125">
         <f t="shared" si="1"/>
-        <v>3930296200</v>
+        <v>1919380310</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1043547234334900</v>
+        <v>1121109323888800</v>
       </c>
       <c r="B126">
         <f t="shared" si="1"/>
-        <v>566073300</v>
+        <v>1134524600</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1043547800408200</v>
+        <v>1121110458413400</v>
       </c>
       <c r="B127">
         <f t="shared" si="1"/>
-        <v>504736300</v>
+        <v>1947691400</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1043548305144500</v>
+        <v>1121112406104800</v>
       </c>
       <c r="B128">
         <f t="shared" si="1"/>
-        <v>3929835800</v>
+        <v>1923121090</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1043552234980300</v>
+        <v>1121114329225890</v>
       </c>
       <c r="B129">
         <f t="shared" si="1"/>
-        <v>567930600</v>
+        <v>1133249910</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1043552802910900</v>
+        <v>1121115462475800</v>
       </c>
       <c r="B130">
         <f t="shared" si="1"/>
-        <v>1315200</v>
+        <v>1947117300</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1043552804226100</v>
+        <v>1121117409593100</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B184" si="2">A132-A131</f>
-        <v>508079100</v>
+        <f t="shared" ref="B131:B193" si="2">A132-A131</f>
+        <v>3058091100</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1043553312305200</v>
+        <v>1121120467684200</v>
       </c>
       <c r="B132">
         <f t="shared" si="2"/>
-        <v>3925261200</v>
+        <v>1945725000</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1043557237566400</v>
+        <v>1121122413409200</v>
       </c>
       <c r="B133">
         <f t="shared" si="2"/>
-        <v>568123300</v>
+        <v>3058091300</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1043557805689700</v>
+        <v>1121125471500500</v>
       </c>
       <c r="B134">
         <f t="shared" si="2"/>
-        <v>510582200</v>
+        <v>1946330000</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1043558316271900</v>
+        <v>1121127417830500</v>
       </c>
       <c r="B135">
         <f t="shared" si="2"/>
-        <v>1003900</v>
+        <v>3056051700</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1043558317275800</v>
+        <v>1121130473882200</v>
       </c>
       <c r="B136">
         <f t="shared" si="2"/>
-        <v>3922162000</v>
+        <v>1948546400</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1043562239437800</v>
+        <v>1121132422428600</v>
       </c>
       <c r="B137">
         <f t="shared" si="2"/>
-        <v>569912800</v>
+        <v>3055618090</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1043562809350600</v>
+        <v>1121135478046690</v>
       </c>
       <c r="B138">
         <f t="shared" si="2"/>
-        <v>510257000</v>
+        <v>1948808810</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1043563319607600</v>
+        <v>1121137426855500</v>
       </c>
       <c r="B139">
         <f t="shared" si="2"/>
-        <v>903400</v>
+        <v>3055947090</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1043563320511000</v>
+        <v>1121140482802590</v>
       </c>
       <c r="B140">
         <f t="shared" si="2"/>
-        <v>3921955000</v>
+        <v>1947904210</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1043567242466000</v>
+        <v>1121142430706800</v>
       </c>
       <c r="B141">
         <f t="shared" si="2"/>
-        <v>570518300</v>
+        <v>3055499900</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1043567812984300</v>
+        <v>1121145486206700</v>
       </c>
       <c r="B142">
         <f t="shared" si="2"/>
-        <v>681500</v>
+        <v>1948414400</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1043567813665800</v>
+        <v>1121147434621100</v>
       </c>
       <c r="B143">
         <f t="shared" si="2"/>
-        <v>510544300</v>
+        <v>55437800</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1043568324210100</v>
+        <v>1121147490058900</v>
       </c>
       <c r="B144">
         <f t="shared" si="2"/>
-        <v>1481400</v>
+        <v>4948572400</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1043568325691500</v>
+        <v>1121152438631300</v>
       </c>
       <c r="B145">
         <f t="shared" si="2"/>
-        <v>3917313800</v>
+        <v>57943000</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1043572243005300</v>
+        <v>1121152496574300</v>
       </c>
       <c r="B146">
         <f t="shared" si="2"/>
-        <v>571788300</v>
+        <v>4946184700</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1043572814793600</v>
+        <v>1121157442759000</v>
       </c>
       <c r="B147">
         <f t="shared" si="2"/>
-        <v>4425205300</v>
+        <v>58844100</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1043577239998900</v>
+        <v>1121157501603100</v>
       </c>
       <c r="B148">
         <f t="shared" si="2"/>
-        <v>575823600</v>
+        <v>4942143700</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1043577815822500</v>
+        <v>1121162443746800</v>
       </c>
       <c r="B149">
         <f t="shared" si="2"/>
-        <v>494200</v>
+        <v>61648400</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1043577816316700</v>
+        <v>1121162505395200</v>
       </c>
       <c r="B150">
         <f t="shared" si="2"/>
-        <v>4428215700</v>
+        <v>4942681100</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1043582244532400</v>
+        <v>1121167448076300</v>
       </c>
       <c r="B151">
         <f t="shared" si="2"/>
-        <v>574679300</v>
+        <v>60611790</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1043582819211700</v>
+        <v>1121167508688090</v>
       </c>
       <c r="B152">
         <f t="shared" si="2"/>
-        <v>4422847600</v>
+        <v>4940917110</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1043587242059300</v>
+        <v>1121172449605200</v>
       </c>
       <c r="B153">
         <f t="shared" si="2"/>
-        <v>580915800</v>
+        <v>61338300</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1043587822975100</v>
+        <v>1121172510943500</v>
       </c>
       <c r="B154">
         <f t="shared" si="2"/>
-        <v>4420418800</v>
+        <v>4942250900</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1043592243393900</v>
+        <v>1121177453194400</v>
       </c>
       <c r="B155">
         <f t="shared" si="2"/>
-        <v>583978200</v>
+        <v>62077800</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1043592827372100</v>
+        <v>1121177515272200</v>
       </c>
       <c r="B156">
         <f t="shared" si="2"/>
-        <v>1300400</v>
+        <v>4939220100</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1043592828672500</v>
+        <v>1121182454492300</v>
       </c>
       <c r="B157">
         <f t="shared" si="2"/>
-        <v>4419993800</v>
+        <v>65658500</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1043597248666300</v>
+        <v>1121182520150800</v>
       </c>
       <c r="B158">
         <f t="shared" si="2"/>
-        <v>612200</v>
+        <v>4938047300</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1043597249278500</v>
+        <v>1121187458198100</v>
       </c>
       <c r="B159">
         <f t="shared" si="2"/>
-        <v>585408900</v>
+        <v>64434100</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1043597834687400</v>
+        <v>1121187522632200</v>
       </c>
       <c r="B160">
         <f t="shared" si="2"/>
-        <v>619400</v>
+        <v>1940632700</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1043597835306800</v>
+        <v>1121189463264900</v>
       </c>
       <c r="B161">
         <f t="shared" si="2"/>
-        <v>4409991400</v>
+        <v>3062991490</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1043602245298200</v>
+        <v>1121192526256390</v>
       </c>
       <c r="B162">
         <f t="shared" si="2"/>
-        <v>593190800</v>
+        <v>1941370810</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1043602838489000</v>
+        <v>1121194467627200</v>
       </c>
       <c r="B163">
         <f t="shared" si="2"/>
-        <v>725900</v>
+        <v>2000662500</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1043602839214900</v>
+        <v>1121196468289700</v>
       </c>
       <c r="B164">
         <f t="shared" si="2"/>
-        <v>5002480700</v>
+        <v>1060417900</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1043607841695600</v>
+        <v>1121197528707600</v>
       </c>
       <c r="B165">
         <f t="shared" si="2"/>
-        <v>646300</v>
+        <v>3942951800</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1043607842341900</v>
+        <v>1121201471659400</v>
       </c>
       <c r="B166">
         <f t="shared" si="2"/>
-        <v>5004018200</v>
+        <v>1058221290</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1043612846360100</v>
+        <v>1121202529880690</v>
       </c>
       <c r="B167">
         <f t="shared" si="2"/>
-        <v>5003904600</v>
+        <v>3944314200</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1043617850264700</v>
+        <v>1121206474194890</v>
       </c>
       <c r="B168">
         <f t="shared" si="2"/>
-        <v>5010459800</v>
+        <v>1058144300</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1043622860724500</v>
+        <v>1121207532339190</v>
       </c>
       <c r="B169">
         <f t="shared" si="2"/>
-        <v>5001163600</v>
+        <v>3943275110</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1043627861888100</v>
+        <v>1121211475614300</v>
       </c>
       <c r="B170">
         <f t="shared" si="2"/>
-        <v>5001699800</v>
+        <v>1060487090</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1043632863587900</v>
+        <v>1121212536101390</v>
       </c>
       <c r="B171">
         <f t="shared" si="2"/>
-        <v>5001891000</v>
+        <v>3942755000</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1043637865478900</v>
+        <v>1121216478856390</v>
       </c>
       <c r="B172">
         <f t="shared" si="2"/>
-        <v>5000843900</v>
+        <v>1059510910</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1043642866322800</v>
+        <v>1121217538367300</v>
       </c>
       <c r="B173">
         <f t="shared" si="2"/>
-        <v>5001184300</v>
+        <v>3944249000</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1043647867507100</v>
+        <v>1121221482616300</v>
       </c>
       <c r="B174">
         <f t="shared" si="2"/>
-        <v>5002086200</v>
+        <v>1058079400</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1043652869593300</v>
+        <v>1121222540695700</v>
       </c>
       <c r="B175">
         <f t="shared" si="2"/>
-        <v>5001307000</v>
+        <v>3946065790</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1043657870900300</v>
+        <v>1121226486761490</v>
       </c>
       <c r="B176">
         <f t="shared" si="2"/>
-        <v>5000695800</v>
+        <v>1058949910</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1043662871596100</v>
+        <v>1121227545711400</v>
       </c>
       <c r="B177">
         <f t="shared" si="2"/>
-        <v>5000936700</v>
+        <v>3942443990</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1043667872532800</v>
+        <v>1121231488155390</v>
       </c>
       <c r="B178">
         <f t="shared" si="2"/>
-        <v>5000136900</v>
+        <v>1059475310</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1043672872669700</v>
+        <v>1121232547630700</v>
       </c>
       <c r="B179">
         <f t="shared" si="2"/>
-        <v>5000638000</v>
+        <v>3943051600</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1043677873307700</v>
+        <v>1121236490682300</v>
       </c>
       <c r="B180">
         <f t="shared" si="2"/>
-        <v>5000566900</v>
+        <v>865200</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1043682873874600</v>
+        <v>1121236491547500</v>
       </c>
       <c r="B181">
         <f t="shared" si="2"/>
-        <v>5003658100</v>
+        <v>2003926900</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1043687877532700</v>
+        <v>1121238495474400</v>
       </c>
       <c r="B182">
         <f t="shared" si="2"/>
-        <v>1359100</v>
+        <v>4056462990</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1043687878891800</v>
+        <v>1121242551937390</v>
       </c>
       <c r="B183">
         <f t="shared" si="2"/>
-        <v>5001611700</v>
+        <v>948281300</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1043692880503500</v>
+        <v>1121243500218690</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="2"/>
+        <v>4053896610</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1121247554115300</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="2"/>
+        <v>948087390</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1121248502202690</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="2"/>
+        <v>2003586310</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1121250505789000</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="2"/>
+        <v>5004319390</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1121255510108390</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="2"/>
+        <v>5003126310</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1121260513234700</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="2"/>
+        <v>890900</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1121260514125600</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="2"/>
+        <v>7002186500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1121267516312100</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="2"/>
+        <v>401800</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1121267516713900</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="2"/>
+        <v>10001327500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1121277518041400</v>
       </c>
     </row>
   </sheetData>
@@ -3893,10 +4046,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F56BA49-7713-4C5F-9CCC-370EE116BB78}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3919,128 +4072,182 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1040392783371200</v>
+        <v>1120913253662600</v>
       </c>
       <c r="B2">
         <f>A3 - A2</f>
-        <v>12005292700</v>
+        <v>5994573800</v>
       </c>
       <c r="C2">
-        <f>AVERAGE(B2:B14)</f>
-        <v>7385023046.1538458</v>
+        <f>AVERAGE(B2:B20)</f>
+        <v>6000050536.8421049</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1040404788663900</v>
+        <v>1120919248236400</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B14" si="0">A4 - A3</f>
-        <v>5998776700</v>
+        <f t="shared" ref="B3:B21" si="0">A4 - A3</f>
+        <v>6001516900</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1040410787440600</v>
+        <v>1120925249753300</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>5995317300</v>
+        <v>6001137190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1040416782757900</v>
+        <v>1120931250890490</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>6000423700</v>
+        <v>5999759710</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1040422783181600</v>
+        <v>1120937250650200</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>6000118800</v>
+        <v>6003155100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1040428783300400</v>
+        <v>1120943253805300</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>6003929700</v>
+        <v>5999542900</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1040434787230100</v>
+        <v>1120949253348200</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>5999063900</v>
+        <v>5997743190</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1040440786294000</v>
+        <v>1120955251091390</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>11998714500</v>
+        <v>6000643410</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1040452785008500</v>
+        <v>1120961251734800</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>5996137900</v>
+        <v>6000186600</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1040458781146400</v>
+        <v>1120967251921400</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>6004857000</v>
+        <v>6001521190</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1040464786003400</v>
+        <v>1120973253442590</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>11999317800</v>
+        <v>5999474010</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1040476785321200</v>
+        <v>1120979252916600</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>6000800600</v>
+        <v>5996401300</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1040482786121800</v>
+        <v>1120985249317900</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>6002549000</v>
+        <v>6003177000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1040488788670800</v>
+        <v>1120991252494900</v>
+      </c>
+      <c r="B15">
+        <f>A16 - A15</f>
+        <v>5995776100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1120997248271000</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>6005104900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1121003253375900</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>6000981200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1121009254357100</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>5999791600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1121015254148700</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>6001480300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1121021255629000</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>5998993800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1121027254622800</v>
       </c>
     </row>
   </sheetData>
@@ -4050,10 +4257,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72974A68-B55D-4207-999B-BE02580A3B85}">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4076,1361 +4283,1739 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1040374788951000</v>
+        <v>1120915263911800</v>
       </c>
       <c r="B2">
         <f>A3 - A2</f>
-        <v>5037501000</v>
+        <v>5002824900</v>
       </c>
       <c r="C2">
-        <f>AVERAGE(B2:B151)</f>
-        <v>2047697266</v>
+        <f>AVERAGE(B2:B193)</f>
+        <v>1897162159.375</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1040379826452000</v>
+        <v>1120920266736700</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">A4 - A3</f>
-        <v>953937800</v>
+        <v>5012310600</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1040380780389800</v>
+        <v>1120925279047300</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>4049117500</v>
+        <v>1987680100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1040384829507300</v>
+        <v>1120927266727400</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>975718300</v>
+        <v>2009435300</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1040385805225600</v>
+        <v>1120929276162700</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>975115800</v>
+        <v>1009084200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1040386780341400</v>
+        <v>1120930285246900</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>3052091000</v>
+        <v>4001360390</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1040389832432400</v>
+        <v>1120934286607290</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>980288700</v>
+        <v>1005182610</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1040390812721100</v>
+        <v>1120935291789900</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>974282500</v>
+        <v>3968438690</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1040391787003600</v>
+        <v>1120939260228590</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>3047501500</v>
+        <v>33448510</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1040394834505100</v>
+        <v>1120939293677100</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>985329100</v>
+        <v>1004174500</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1040395819834200</v>
+        <v>1120940297851600</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>969696300</v>
+        <v>968985500</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1040396789530500</v>
+        <v>1120941266837100</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1992751200</v>
+        <v>3031575000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1040398782281700</v>
+        <v>1120944298412100</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>1054961200</v>
+        <v>1006461400</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1040399837242900</v>
+        <v>1120945304873500</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>985404400</v>
+        <v>970817390</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1040400822647300</v>
+        <v>1120946275690890</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>970115300</v>
+        <v>3025929910</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1040401792762600</v>
+        <v>1120949301620800</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>2008876900</v>
+        <v>1005468690</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1040403801639500</v>
+        <v>1120950307089490</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1038665600</v>
+        <v>974417710</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1040404840305100</v>
+        <v>1120951281507200</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>987725800</v>
+        <v>3022522400</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1040405828030900</v>
+        <v>1120954304029600</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>970106500</v>
+        <v>1006144200</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1040406798137400</v>
+        <v>1120955310173800</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>2005606000</v>
+        <v>978126390</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1040408803743400</v>
+        <v>1120956288300190</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>1041558700</v>
+        <v>970358300</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1040409845302100</v>
+        <v>1120957258658490</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>985827200</v>
+        <v>55340510</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1040410831129300</v>
+        <v>1120957313999000</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>969934000</v>
+        <v>981848300</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1040411801063300</v>
+        <v>1120958295847300</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>2003822200</v>
+        <v>968177000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1040413804885500</v>
+        <v>1120959264024300</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>1043012600</v>
+        <v>42772100</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1040414847898100</v>
+        <v>1120959306796400</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>985412000</v>
+        <v>3011690500</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1040415833310100</v>
+        <v>1120962318486900</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>969326200</v>
+        <v>1951676800</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1040416802636300</v>
+        <v>1120964270163700</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>2004130800</v>
+        <v>40447390</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1040418806767100</v>
+        <v>1120964310611090</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>1043585300</v>
+        <v>3014204110</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1040419850352400</v>
+        <v>1120967324815200</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>1955519100</v>
+        <v>1950737300</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1040421805871500</v>
+        <v>1120969275552500</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>2002625000</v>
+        <v>38883400</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1040423808496500</v>
+        <v>1120969314435900</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>1044230200</v>
+        <v>1962771600</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1040424852726700</v>
+        <v>1120971277207500</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1955378600</v>
+        <v>1054622190</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1040426808105300</v>
+        <v>1120972331829690</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>2002153000</v>
+        <v>1984187800</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1040428810258300</v>
+        <v>1120974316017490</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>1044624700</v>
+        <v>1964557510</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1040429854883000</v>
+        <v>1120976280575000</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>1955102000</v>
+        <v>1056262900</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1040431809985000</v>
+        <v>1120977336837900</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>2002457200</v>
+        <v>1981714300</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1040433812442200</v>
+        <v>1120979318552200</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>1047757900</v>
+        <v>1966250890</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1040434860200100</v>
+        <v>1120981284803090</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>1952235100</v>
+        <v>1057108910</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1040436812435200</v>
+        <v>1120982341912000</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>2005539100</v>
+        <v>947715100</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1040438817974300</v>
+        <v>1120983289627100</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>1044464300</v>
+        <v>1033602800</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1040439862438600</v>
+        <v>1120984323229900</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>1951415000</v>
+        <v>23883600</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1040441813853600</v>
+        <v>1120984347113500</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>2008864200</v>
+        <v>3947763600</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1040443822717800</v>
+        <v>1120988294877100</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>1044341300</v>
+        <v>1034314500</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1040444867059100</v>
+        <v>1120989329191600</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>1915517000</v>
+        <v>22945700</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1040446782576100</v>
+        <v>1120989352137300</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>32701400</v>
+        <v>2003933900</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1040446815277500</v>
+        <v>1120991356071200</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>2009975100</v>
+        <v>1943997800</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1040448825252600</v>
+        <v>1120993300069000</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>1044010600</v>
+        <v>1032935500</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1040449869263200</v>
+        <v>1120994333004500</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>1947917200</v>
+        <v>2025082600</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1040451817180400</v>
+        <v>1120996358087100</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>2009057600</v>
+        <v>1945225200</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1040453826238000</v>
+        <v>1120998303312300</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>1047234200</v>
+        <v>59282400</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1040454873472200</v>
+        <v>1120998362594700</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>1949784200</v>
+        <v>992624700</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1040456823256400</v>
+        <v>1120999355219400</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>2002825100</v>
+        <v>2004894490</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1040458826081500</v>
+        <v>1121001360113890</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>1051073400</v>
+        <v>1947011510</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1040459877154900</v>
+        <v>1121003307125400</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>1957830900</v>
+        <v>58074500</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1040461834985800</v>
+        <v>1121003365199900</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>1991534600</v>
+        <v>497115900</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1040463826520400</v>
+        <v>1121003862315800</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>463099500</v>
+        <v>1450271900</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1040464289619900</v>
+        <v>1121005312587700</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>596447500</v>
+        <v>58105190</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1040464886067400</v>
+        <v>1121005370692890</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>1950164100</v>
+        <v>4946669400</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1040466836231500</v>
+        <v>1121010317362290</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>1990532600</v>
+        <v>57325310</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1040468826764100</v>
+        <v>1121010374687600</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>1061445800</v>
+        <v>1947690090</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1040469888209900</v>
+        <v>1121012322377690</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>897101400</v>
+        <v>55764610</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1040470785311300</v>
+        <v>1121012378142300</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>1052743200</v>
+        <v>4948884300</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1040471838054500</v>
+        <v>1121017327026600</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>1989264200</v>
+        <v>56044700</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1040473827318700</v>
+        <v>1121017383071300</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>1062461500</v>
+        <v>1948187500</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1040474889780200</v>
+        <v>1121019331258800</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B130" si="1">A68 - A67</f>
-        <v>1949390500</v>
+        <v>54417400</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1040476839170700</v>
+        <v>1121019385676200</v>
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>1989091500</v>
+        <v>4948077200</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1040478828262200</v>
+        <v>1121024333753400</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>1064101100</v>
+        <v>56035590</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1040479892363300</v>
+        <v>1121024389788990</v>
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>1948186000</v>
+        <v>4947869710</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1040481840549300</v>
+        <v>1121029337658700</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>1988399500</v>
+        <v>55624000</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1040483828948800</v>
+        <v>1121029393282700</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
-        <v>1067564100</v>
+        <v>2865370990</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1040484896512900</v>
+        <v>1121032258653690</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
-        <v>1945352600</v>
+        <v>2080755000</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1040486841865500</v>
+        <v>1121034339408690</v>
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
-        <v>1988003900</v>
+        <v>55916210</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1040488829869400</v>
+        <v>1121034395324900</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
-        <v>1068877000</v>
+        <v>1949814500</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1040489898746400</v>
+        <v>1121036345139400</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
-        <v>1947444900</v>
+        <v>54491100</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1040491846191300</v>
+        <v>1121036399630500</v>
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
-        <v>1983778700</v>
+        <v>862287100</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1040493829970000</v>
+        <v>1121037261917600</v>
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
-        <v>1072001200</v>
+        <v>4088782400</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1040494901971200</v>
+        <v>1121041350700000</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
-        <v>1946000700</v>
+        <v>51830800</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1040496847971900</v>
+        <v>1121041402530800</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
-        <v>1982337500</v>
+        <v>861620100</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1040498830309400</v>
+        <v>1121042264150900</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
-        <v>1076080200</v>
+        <v>1091054090</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1040499906389600</v>
+        <v>1121043355204990</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
-        <v>1943180700</v>
+        <v>3051684510</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1040501849570300</v>
+        <v>1121046406889500</v>
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
-        <v>1981827100</v>
+        <v>862588700</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1040503831397400</v>
+        <v>1121047269478200</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
-        <v>1075911400</v>
+        <v>1090348700</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1040504907308800</v>
+        <v>1121048359826900</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
-        <v>1946707000</v>
+        <v>915137400</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1040506854015800</v>
+        <v>1121049274964300</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
-        <v>1977359400</v>
+        <v>2135231500</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1040508831375200</v>
+        <v>1121051410195800</v>
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
-        <v>1077748900</v>
+        <v>1953339200</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1040509909124100</v>
+        <v>1121053363535000</v>
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
-        <v>1950031800</v>
+        <v>915516490</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1040511859155900</v>
+        <v>1121054279051490</v>
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
-        <v>1972622400</v>
+        <v>2134814800</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1040513831778300</v>
+        <v>1121056413866290</v>
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
-        <v>1081626100</v>
+        <v>1953969700</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1040514913404400</v>
+        <v>1121058367835990</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
-        <v>1947605200</v>
+        <v>916062400</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1040516861009600</v>
+        <v>1121059283898390</v>
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
-        <v>1971288900</v>
+        <v>2132353900</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1040518832298500</v>
+        <v>1121061416252290</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
-        <v>1084971700</v>
+        <v>1956571110</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1040519917270200</v>
+        <v>1121063372823400</v>
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
-        <v>1948159300</v>
+        <v>916049100</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1040521865429500</v>
+        <v>1121064288872500</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
-        <v>1968053700</v>
+        <v>2133326290</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1040523833483200</v>
+        <v>1121066422198790</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
-        <v>1091320900</v>
+        <v>1954159810</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1040524924804100</v>
+        <v>1121068376358600</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
-        <v>1943725100</v>
+        <v>49357500</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1040526868529200</v>
+        <v>1121068425716100</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
-        <v>1965702000</v>
+        <v>866633200</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1040528834231200</v>
+        <v>1121069292349300</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
-        <v>1092092500</v>
+        <v>4085292900</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1040529926323700</v>
+        <v>1121073377642200</v>
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
-        <v>1946264100</v>
+        <v>51233200</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1040531872587800</v>
+        <v>1121073428875400</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
-        <v>1962482700</v>
+        <v>867245500</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1040533835070500</v>
+        <v>1121074296120900</v>
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
-        <v>1092759100</v>
+        <v>4084391100</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1040534927829600</v>
+        <v>1121078380512000</v>
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
-        <v>1947542200</v>
+        <v>51119090</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1040536875371800</v>
+        <v>1121078431631090</v>
       </c>
       <c r="B104">
         <f t="shared" si="1"/>
-        <v>1960480600</v>
+        <v>867064810</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1040538835852400</v>
+        <v>1121079298695900</v>
       </c>
       <c r="B105">
         <f t="shared" si="1"/>
-        <v>1094793300</v>
+        <v>1084384800</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1040539930645700</v>
+        <v>1121080383080700</v>
       </c>
       <c r="B106">
         <f t="shared" si="1"/>
-        <v>1945797000</v>
+        <v>3053658790</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1040541876442700</v>
+        <v>1121083436739490</v>
       </c>
       <c r="B107">
         <f t="shared" si="1"/>
-        <v>1959392800</v>
+        <v>865477810</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1040543835835500</v>
+        <v>1121084302217300</v>
       </c>
       <c r="B108">
         <f t="shared" si="1"/>
-        <v>1097274900</v>
+        <v>1082710400</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1040544933110400</v>
+        <v>1121085384927700</v>
       </c>
       <c r="B109">
         <f t="shared" si="1"/>
-        <v>1945002200</v>
+        <v>3054902100</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1040546878112600</v>
+        <v>1121088439829800</v>
       </c>
       <c r="B110">
         <f t="shared" si="1"/>
-        <v>1958454100</v>
+        <v>863754400</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1040548836566700</v>
+        <v>1121089303584200</v>
       </c>
       <c r="B111">
         <f t="shared" si="1"/>
-        <v>1103114700</v>
+        <v>1082599300</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1040549939681400</v>
+        <v>1121090386183500</v>
       </c>
       <c r="B112">
         <f t="shared" si="1"/>
-        <v>1939988200</v>
+        <v>2001682000</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1040551879669600</v>
+        <v>1121092387865500</v>
       </c>
       <c r="B113">
         <f t="shared" si="1"/>
-        <v>1958253000</v>
+        <v>1053138000</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1040553837922600</v>
+        <v>1121093441003500</v>
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
-        <v>1105888800</v>
+        <v>865057800</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1040554943811400</v>
+        <v>1121094306061300</v>
       </c>
       <c r="B115">
         <f t="shared" si="1"/>
-        <v>1938079200</v>
+        <v>3086315100</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1040556881890600</v>
+        <v>1121097392376400</v>
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
-        <v>1955449600</v>
+        <v>1050638900</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1040558837340200</v>
+        <v>1121098443015300</v>
       </c>
       <c r="B117">
         <f t="shared" si="1"/>
-        <v>1110217000</v>
+        <v>868367900</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1040559947557200</v>
+        <v>1121099311383200</v>
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
-        <v>1937968500</v>
+        <v>3086292300</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1040561885525700</v>
+        <v>1121102397675500</v>
       </c>
       <c r="B119">
         <f t="shared" si="1"/>
-        <v>1952683100</v>
+        <v>1049893300</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1040563838208800</v>
+        <v>1121103447568800</v>
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
-        <v>3051616300</v>
+        <v>869197990</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1040566889825100</v>
+        <v>1121104316766790</v>
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
-        <v>1948173900</v>
+        <v>1135504900</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1040568837999000</v>
+        <v>1121105452271690</v>
       </c>
       <c r="B122">
         <f t="shared" si="1"/>
-        <v>3054989700</v>
+        <v>1949943800</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1040571892988700</v>
+        <v>1121107402215490</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
-        <v>1944981500</v>
+        <v>1919479810</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1040573837970200</v>
+        <v>1121109321695300</v>
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
-        <v>3056618500</v>
+        <v>1134371190</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1040576894588700</v>
+        <v>1121110456066490</v>
       </c>
       <c r="B125">
         <f t="shared" si="1"/>
-        <v>1944480000</v>
+        <v>1949575710</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1040578839068700</v>
+        <v>1121112405642200</v>
       </c>
       <c r="B126">
         <f t="shared" si="1"/>
-        <v>3058149900</v>
+        <v>1921125100</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1040581897218600</v>
+        <v>1121114326767300</v>
       </c>
       <c r="B127">
         <f t="shared" si="1"/>
-        <v>1942277300</v>
+        <v>1133771600</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1040583839495900</v>
+        <v>1121115460538900</v>
       </c>
       <c r="B128">
         <f t="shared" si="1"/>
-        <v>3059823300</v>
+        <v>870189100</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1040586899319200</v>
+        <v>1121116330728000</v>
       </c>
       <c r="B129">
         <f t="shared" si="1"/>
-        <v>1941282500</v>
+        <v>1076594090</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1040588840601700</v>
+        <v>1121117407322090</v>
       </c>
       <c r="B130">
         <f t="shared" si="1"/>
-        <v>3068779600</v>
+        <v>3057753910</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1040591909381300</v>
+        <v>1121120465076000</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B151" si="2">A132 - A131</f>
-        <v>1932573700</v>
+        <f t="shared" ref="B131:B194" si="2">A132 - A131</f>
+        <v>1945995790</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1040593841955000</v>
+        <v>1121122411071790</v>
       </c>
       <c r="B132">
         <f t="shared" si="2"/>
-        <v>3070069300</v>
+        <v>3058144910</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1040596912024300</v>
+        <v>1121125469216700</v>
       </c>
       <c r="B133">
         <f t="shared" si="2"/>
-        <v>1929793300</v>
+        <v>1946347290</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1040598841817600</v>
+        <v>1121127415563990</v>
       </c>
       <c r="B134">
         <f t="shared" si="2"/>
-        <v>3071617200</v>
+        <v>3057111010</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1040601913434800</v>
+        <v>1121130472675000</v>
       </c>
       <c r="B135">
         <f t="shared" si="2"/>
-        <v>1929312200</v>
+        <v>1947548700</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1040603842747000</v>
+        <v>1121132420223700</v>
       </c>
       <c r="B136">
         <f t="shared" si="2"/>
-        <v>3071768900</v>
+        <v>3055368600</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1040606914515900</v>
+        <v>1121135475592300</v>
       </c>
       <c r="B137">
         <f t="shared" si="2"/>
-        <v>5001143700</v>
+        <v>1948482100</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1040611915659600</v>
+        <v>1121137424074400</v>
       </c>
       <c r="B138">
         <f t="shared" si="2"/>
-        <v>5000963800</v>
+        <v>3056401990</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1040616916623400</v>
+        <v>1121140480476390</v>
       </c>
       <c r="B139">
         <f t="shared" si="2"/>
-        <v>5001370000</v>
+        <v>1948052800</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1040621917993400</v>
+        <v>1121142428529190</v>
       </c>
       <c r="B140">
         <f t="shared" si="2"/>
-        <v>5001307400</v>
+        <v>3055421610</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1040626919300800</v>
+        <v>1121145483950800</v>
       </c>
       <c r="B141">
         <f t="shared" si="2"/>
-        <v>5001369200</v>
+        <v>1948399790</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1040631920670000</v>
+        <v>1121147432350590</v>
       </c>
       <c r="B142">
         <f t="shared" si="2"/>
-        <v>5001765100</v>
+        <v>55192710</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1040636922435100</v>
+        <v>1121147487543300</v>
       </c>
       <c r="B143">
         <f t="shared" si="2"/>
-        <v>5004578600</v>
+        <v>4948944500</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1040641927013700</v>
+        <v>1121152436487800</v>
       </c>
       <c r="B144">
         <f t="shared" si="2"/>
-        <v>5004277400</v>
+        <v>55868200</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1040646931291100</v>
+        <v>1121152492356000</v>
       </c>
       <c r="B145">
         <f t="shared" si="2"/>
-        <v>5001205400</v>
+        <v>4947875300</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1040651932496500</v>
+        <v>1121157440231300</v>
       </c>
       <c r="B146">
         <f t="shared" si="2"/>
-        <v>5002604500</v>
+        <v>58694400</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1040656935101000</v>
+        <v>1121157498925700</v>
       </c>
       <c r="B147">
         <f t="shared" si="2"/>
-        <v>5002548600</v>
+        <v>4944390300</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1040661937649600</v>
+        <v>1121162443316000</v>
       </c>
       <c r="B148">
         <f t="shared" si="2"/>
-        <v>5001295600</v>
+        <v>59805600</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1040666938945200</v>
+        <v>1121162503121600</v>
       </c>
       <c r="B149">
         <f t="shared" si="2"/>
-        <v>5001686500</v>
+        <v>4942155800</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1040671940631700</v>
+        <v>1121167445277400</v>
       </c>
       <c r="B150">
         <f t="shared" si="2"/>
-        <v>5001176600</v>
+        <v>62746900</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1040676941808300</v>
+        <v>1121167508024300</v>
       </c>
       <c r="B151">
         <f t="shared" si="2"/>
-        <v>5001732600</v>
+        <v>4941094000</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1040681943540900</v>
+        <v>1121172449118300</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="2"/>
+        <v>61019290</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1121172510137590</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="2"/>
+        <v>4940717310</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1121177450854900</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="2"/>
+        <v>61640490</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1121177512495390</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="2"/>
+        <v>4941180500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1121182453675890</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="2"/>
+        <v>63832810</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1121182517508700</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="2"/>
+        <v>4938325890</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1121187455834590</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="2"/>
+        <v>65482210</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1121187521316800</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="2"/>
+        <v>1939298200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1121189460615000</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="2"/>
+        <v>3063354700</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1121192523969700</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="2"/>
+        <v>1941106200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1121194465075900</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="2"/>
+        <v>2002696790</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1121196467772690</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="2"/>
+        <v>1060540010</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1121197528312700</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="2"/>
+        <v>3941734500</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1121201470047200</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="2"/>
+        <v>1058593100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1121202528640300</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="2"/>
+        <v>3944744800</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1121206473385100</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="2"/>
+        <v>1057742400</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1121207531127500</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="2"/>
+        <v>3943615990</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1121211474743490</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="2"/>
+        <v>1058852100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1121212533595590</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="2"/>
+        <v>3942929710</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1121216476525300</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="2"/>
+        <v>1060652300</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1121217537177600</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="2"/>
+        <v>3943444900</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1121221480622500</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="2"/>
+        <v>1058657600</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1121222539280100</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="2"/>
+        <v>3945137300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1121226484417400</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="2"/>
+        <v>1058516400</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1121227542933800</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="2"/>
+        <v>3944695100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1121231487628900</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="2"/>
+        <v>1059162200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1121232546791100</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="2"/>
+        <v>3942186200</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1121236488977300</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="2"/>
+        <v>1059361100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1121237548338400</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="2"/>
+        <v>944236000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1121238492574400</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="2"/>
+        <v>4057064400</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1121242549638800</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="2"/>
+        <v>948329590</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1121243497968390</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="2"/>
+        <v>4055687810</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1121247553656200</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="2"/>
+        <v>947887100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1121248501543300</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="2"/>
+        <v>1053841500</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1121249555384800</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="2"/>
+        <v>947973800</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1121250503358600</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="2"/>
+        <v>5004494900</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1121255507853500</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="2"/>
+        <v>5003077700</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1121260510931200</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="2"/>
+        <v>2003957000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1121262514888200</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="2"/>
+        <v>5000538500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1121267515426700</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="2"/>
+        <v>5000980090</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1121272516406790</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="2"/>
+        <v>5000838110</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1121277517244900</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="2"/>
+        <v>2001801500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1121279519046400</v>
       </c>
     </row>
   </sheetData>
@@ -5443,7 +6028,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5465,7 +6050,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1043692882051100</v>
+        <v>1121277519969890</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -5484,7 +6069,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5506,7 +6091,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1040464288835200</v>
+        <v>1121003861775500</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -5586,20 +6171,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1040413778180800</v>
+        <v>1120952252416290</v>
       </c>
       <c r="B2">
         <f>A3 - A2</f>
-        <v>48006942400</v>
+        <v>48000077010</v>
       </c>
       <c r="C2">
         <f>AVERAGE(B2:B2)</f>
-        <v>48006942400</v>
+        <v>48000077010</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1040461785123200</v>
+        <v>1121000252493300</v>
       </c>
     </row>
   </sheetData>
@@ -5609,10 +6194,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7A4B1E-B2E0-4A63-8D0F-30C63909CBCD}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5634,354 +6219,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1040380793334800</v>
-      </c>
-      <c r="B2">
-        <f>A3 - A2</f>
-        <v>5990963800</v>
-      </c>
-      <c r="C2">
-        <f>AVERAGE(B2:B39)</f>
-        <v>7925038963.1578951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1040386784298600</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B39" si="0">A4 - A3</f>
-        <v>12011579300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1040398795877900</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>16053176300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1040414849054200</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>985028200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1040415834082400</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>969580300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1040416803662700</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>27020086700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1040443823749400</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>1044364800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1040444868114200</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>5003667300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1040449871781500</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>5003070600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1040454874852100</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>1957065500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1040456831917600</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>1995314500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1040458827232100</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>1055345300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1040459882577400</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>4409918200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1040464292495600</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>594629900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1040464887125500</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>3942641700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1040468829767200</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>11065816000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1040479895583200</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>6949064500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1040486844647700</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>1990246800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1040488834894500</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>6069618700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1040494904513200</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>15007365400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1040509911878600</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>3922713900</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1040513834592500</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>6087215100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1040519921807600</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>13919118200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1040533840925800</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>11095864500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1040544936790300</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>8905929500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1040553842719800</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>4995510900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1040558838230700</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>1110093300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1040559948324000</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>272400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1040559948596400</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>3895002300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1040563843598700</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>9996232700</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1040573839831400</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>13064805700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1040586904637100</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>1940808800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1040588845445900</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>5001360000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1040593846805900</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>601600</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1040593847407500</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>4994846100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1040598842253600</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>5001136800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1040603843390400</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>78100851300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1040681944241700</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>573700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1040681944815400</v>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5994,7 +6236,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6016,7 +6258,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1040370000701300</v>
+        <v>1120909869491500</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -6034,7 +6276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F508BC-EDDA-48B5-A50F-1C573C70831D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -6074,7 +6316,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6097,182 +6339,182 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1043375890945800</v>
+        <v>1120909872020790</v>
       </c>
       <c r="B2">
         <f>A3-A2</f>
-        <v>12304648200</v>
+        <v>5394225010</v>
       </c>
       <c r="C2">
         <f>AVERAGE(B2:B20)</f>
-        <v>6177664031.5789471</v>
+        <v>6027394553.1578951</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1043388195594000</v>
+        <v>1120915266245800</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B21" si="0">A4-A3</f>
-        <v>6007342000</v>
+        <f t="shared" ref="B3:B20" si="0">A4-A3</f>
+        <v>5010549600</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1043394202936000</v>
+        <v>1120920276795400</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>5973844600</v>
+        <v>10013949900</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1043400176780600</v>
+        <v>1120930290745300</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>5008212100</v>
+        <v>5006304600</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1043405184992700</v>
+        <v>1120935297049900</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>7003006900</v>
+        <v>5976789490</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1043412187999600</v>
+        <v>1120941273839390</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>6018150700</v>
+        <v>5006391000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1043418206150300</v>
+        <v>1120946280230390</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>6019177500</v>
+        <v>8026435500</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1043424225327800</v>
+        <v>1120954306665890</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>5988089400</v>
+        <v>5002262910</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1043430213417200</v>
+        <v>1120959308928800</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>5006835000</v>
+        <v>5005410890</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1043435220252200</v>
+        <v>1120964314339690</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>6991712700</v>
+        <v>8021688910</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1043442211964900</v>
+        <v>1120972336028600</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>6011014600</v>
+        <v>5004417100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1043448222979500</v>
+        <v>1120977340445700</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>5009515800</v>
+        <v>7010709500</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1043453232495300</v>
+        <v>1120984351155200</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>7004318000</v>
+        <v>5005012200</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1043460236813300</v>
+        <v>1120989356167400</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>5008126300</v>
+        <v>7006310900</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1043465244939600</v>
+        <v>1120996362478300</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>7507049100</v>
+        <v>3891380790</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1043472751988700</v>
+        <v>1121000253859090</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>5505041700</v>
+        <v>5121090310</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1043478257030400</v>
+        <v>1121005374949400</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>5000724000</v>
+        <v>7007333400</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1043483257754400</v>
+        <v>1121012382282800</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>5008436500</v>
+        <v>7007218700</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1043488266190900</v>
+        <v>1121019389501500</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>5000371500</v>
+        <v>5003015800</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1043493266562400</v>
+        <v>1121024392517300</v>
       </c>
     </row>
   </sheetData>
